--- a/fhir/ig/tei/0.2.2/ValueSet-VSTerminologiasDiag.xlsx
+++ b/fhir/ig/tei/0.2.2/ValueSet-VSTerminologiasDiag.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2-ballot</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
